--- a/oci_tenancy/Identity/example/CD3-template.xlsx
+++ b/oci_tenancy/Identity/example/CD3-template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
   <si>
     <t>Regional</t>
   </si>
@@ -414,16 +414,20 @@
     <t>Allow group $ to manage instance-family in comaprtment *</t>
   </si>
   <si>
-    <t>PolicyStatementGroup</t>
-  </si>
-  <si>
     <t>PolicyStatementCompartment</t>
   </si>
   <si>
     <t>Compartment Name</t>
   </si>
   <si>
-    <t xml:space="preserve">$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively </t>
+    <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;
+# Rows after &lt;END&gt; or &lt;end&gt; will not be processed;</t>
+  </si>
+  <si>
+    <t>PolicyStatementGroups</t>
+  </si>
+  <si>
+    <t>OCI_Admins,Network_Admins</t>
   </si>
 </sst>
 </file>
@@ -577,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -602,7 +606,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,13 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,11 +949,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1032,7 +1039,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,10 +1049,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1100,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,26 +1119,25 @@
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>99</v>
@@ -1140,10 +1146,10 @@
         <v>117</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,8 +1165,8 @@
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>110</v>
+      <c r="E3" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1217,6 +1223,11 @@
         <v>114</v>
       </c>
       <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1801,10 +1812,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1821,8 +1832,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="9" t="s">
         <v>66</v>
       </c>
@@ -1837,8 +1848,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="10" t="s">
         <v>70</v>
       </c>
@@ -1853,8 +1864,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="10" t="s">
         <v>74</v>
       </c>
@@ -1867,8 +1878,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="12" t="s">
         <v>76</v>
       </c>
@@ -1879,8 +1890,8 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -1889,8 +1900,8 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
       <c r="E8" s="11" t="s">
@@ -1899,8 +1910,8 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -1909,8 +1920,8 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
       <c r="E10" s="11" t="s">
@@ -1919,8 +1930,8 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="12"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11" t="s">
@@ -1929,8 +1940,8 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="11" t="s">
@@ -1939,8 +1950,8 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11" t="s">
@@ -1949,8 +1960,8 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="10"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
@@ -1959,8 +1970,8 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -1969,8 +1980,8 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="10"/>
       <c r="D16" s="1"/>
       <c r="E16" s="11" t="s">
@@ -1979,8 +1990,8 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
